--- a/Content/Configs/卡牌选项表.xlsx
+++ b/Content/Configs/卡牌选项表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -86,7 +86,7 @@
     <t>1_0_0</t>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option1.UI_Option1'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option05.UI_Option05'</t>
   </si>
   <si>
     <t>哒哒哒~这次是两条。</t>
@@ -107,6 +107,9 @@
     <t>2_1_0</t>
   </si>
   <si>
+    <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option08.UI_Option08'</t>
+  </si>
+  <si>
     <t>先烤一条吃</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
     <t>1_1_0</t>
   </si>
   <si>
+    <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option04.UI_Option04'</t>
+  </si>
+  <si>
     <t>伐伐伐伐木工</t>
   </si>
   <si>
@@ -125,6 +131,9 @@
     <t>0_1_0</t>
   </si>
   <si>
+    <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option06.UI_Option06'</t>
+  </si>
+  <si>
     <t>伐伐伐伐木工x2</t>
   </si>
   <si>
@@ -134,6 +143,9 @@
     <t>0_2_0</t>
   </si>
   <si>
+    <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option02.UI_Option02'</t>
+  </si>
+  <si>
     <t>采采采采矿石</t>
   </si>
   <si>
@@ -152,6 +164,9 @@
     <t>1_1_1</t>
   </si>
   <si>
+    <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option09.UI_Option09'</t>
+  </si>
+  <si>
     <t>获得采矿小能手称号</t>
   </si>
   <si>
@@ -176,6 +191,9 @@
     <t>1_0_1</t>
   </si>
   <si>
+    <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option01.UI_Option01'</t>
+  </si>
+  <si>
     <t>炸鱼太多了，换点木头的和亮晶晶</t>
   </si>
   <si>
@@ -191,6 +209,9 @@
     <t>食材-1或木材-1或矿石-1，食材+1，木材+1，矿石+1</t>
   </si>
   <si>
+    <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option07.UI_Option07'</t>
+  </si>
+  <si>
     <t>等价交换</t>
   </si>
   <si>
@@ -245,7 +266,7 @@
     <t>不存在的花</t>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option2.UI_Option2'</t>
+    <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option03.UI_Option03'</t>
   </si>
   <si>
     <t>砍树小能手2级</t>
@@ -362,9 +383,6 @@
     <t>绝不迷失的指路者</t>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option3.UI_Option3'</t>
-  </si>
-  <si>
     <t>钓鱼小能手1级222</t>
   </si>
   <si>
@@ -444,9 +462,6 @@
   </si>
   <si>
     <t>永不完结的传说</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option4.UI_Option4'</t>
   </si>
   <si>
     <t>挑战成就全部解锁完成</t>
@@ -1107,7 +1122,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,6 +1131,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1667,7 +1685,7 @@
     <col min="8" max="8" width="6.375" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="8.875" customWidth="1"/>
-    <col min="11" max="11" width="89.375" customWidth="1"/>
+    <col min="11" max="11" width="91.5" customWidth="1"/>
     <col min="12" max="12" width="5.375" customWidth="1"/>
     <col min="13" max="14" width="5.125" customWidth="1"/>
   </cols>
@@ -1747,7 +1765,7 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L2" t="b">
@@ -1785,7 +1803,7 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L3" t="b">
@@ -1823,8 +1841,8 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>19</v>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -1838,10 +1856,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1853,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1861,8 +1879,8 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>19</v>
+      <c r="K5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -1876,10 +1894,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1891,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1899,8 +1917,8 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>19</v>
+      <c r="K6" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -1914,10 +1932,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1929,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1937,8 +1955,8 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>19</v>
+      <c r="K7" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -1952,10 +1970,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1967,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1975,7 +1993,7 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L8" t="b">
@@ -1990,10 +2008,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -2005,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2013,8 +2031,8 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
-        <v>19</v>
+      <c r="K9" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -2028,10 +2046,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -2043,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2051,8 +2069,8 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
-        <v>19</v>
+      <c r="K10" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -2066,22 +2084,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2089,8 +2107,8 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
-        <v>19</v>
+      <c r="K11" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -2104,22 +2122,22 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2127,8 +2145,8 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>19</v>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -2142,10 +2160,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -2157,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2165,8 +2183,8 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
-        <v>19</v>
+      <c r="K13" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -2180,22 +2198,22 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2203,8 +2221,8 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
-      <c r="K14" t="s">
-        <v>19</v>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -2218,22 +2236,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2241,8 +2259,8 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
-      <c r="K15" t="s">
-        <v>19</v>
+      <c r="K15" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -2256,22 +2274,22 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2279,8 +2297,8 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
-        <v>19</v>
+      <c r="K16" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -2294,22 +2312,22 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2317,8 +2335,8 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
-      <c r="K17" t="s">
-        <v>19</v>
+      <c r="K17" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -2332,22 +2350,22 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2355,8 +2373,8 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
-      <c r="K18" t="s">
-        <v>19</v>
+      <c r="K18" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -2370,22 +2388,22 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2393,8 +2411,8 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
-        <v>19</v>
+      <c r="K19" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -2408,13 +2426,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -2431,8 +2449,8 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
-      <c r="K20" t="s">
-        <v>72</v>
+      <c r="K20" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -2446,16 +2464,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2469,8 +2487,8 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
-      <c r="K21" t="s">
-        <v>72</v>
+      <c r="K21" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
@@ -2484,16 +2502,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -2507,8 +2525,8 @@
       <c r="J22" t="b">
         <v>1</v>
       </c>
-      <c r="K22" t="s">
-        <v>72</v>
+      <c r="K22" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -2522,16 +2540,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
         <v>78</v>
       </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2545,8 +2563,8 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
-      <c r="K23" t="s">
-        <v>72</v>
+      <c r="K23" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
@@ -2560,16 +2578,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -2583,8 +2601,8 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
-      <c r="K24" t="s">
-        <v>72</v>
+      <c r="K24" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -2598,13 +2616,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -2621,8 +2639,8 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
-      <c r="K25" t="s">
-        <v>72</v>
+      <c r="K25" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
@@ -2636,31 +2654,31 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>72</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -2674,16 +2692,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -2697,8 +2715,8 @@
       <c r="J27" t="b">
         <v>1</v>
       </c>
-      <c r="K27" t="s">
-        <v>72</v>
+      <c r="K27" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
@@ -2712,13 +2730,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -2735,8 +2753,8 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
-      <c r="K28" t="s">
-        <v>72</v>
+      <c r="K28" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
@@ -2750,16 +2768,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2773,8 +2791,8 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
-      <c r="K29" t="s">
-        <v>72</v>
+      <c r="K29" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="L29" t="b">
         <v>1</v>
@@ -2788,16 +2806,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -2811,8 +2829,8 @@
       <c r="J30" t="b">
         <v>1</v>
       </c>
-      <c r="K30" t="s">
-        <v>72</v>
+      <c r="K30" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
@@ -2826,16 +2844,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -2849,8 +2867,8 @@
       <c r="J31" t="b">
         <v>1</v>
       </c>
-      <c r="K31" t="s">
-        <v>72</v>
+      <c r="K31" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="L31" t="b">
         <v>1</v>
@@ -2864,16 +2882,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -2887,8 +2905,8 @@
       <c r="J32" t="b">
         <v>1</v>
       </c>
-      <c r="K32" t="s">
-        <v>72</v>
+      <c r="K32" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
@@ -2902,16 +2920,16 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -2925,8 +2943,8 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
-      <c r="K33" t="s">
-        <v>72</v>
+      <c r="K33" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
@@ -2940,16 +2958,16 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -2963,8 +2981,8 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
-      <c r="K34" t="s">
-        <v>72</v>
+      <c r="K34" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
@@ -2978,16 +2996,16 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -3001,8 +3019,8 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
-      <c r="K35" t="s">
-        <v>72</v>
+      <c r="K35" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
@@ -3016,16 +3034,16 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -3039,8 +3057,8 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
-      <c r="K36" t="s">
-        <v>72</v>
+      <c r="K36" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L36" t="b">
         <v>1</v>
@@ -3054,16 +3072,16 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -3077,8 +3095,8 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
-      <c r="K37" t="s">
-        <v>111</v>
+      <c r="K37" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="L37" t="b">
         <v>1</v>
@@ -3092,13 +3110,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
@@ -3115,8 +3133,8 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
-      <c r="K38" t="s">
-        <v>111</v>
+      <c r="K38" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
@@ -3130,16 +3148,16 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -3153,8 +3171,8 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
-      <c r="K39" t="s">
-        <v>111</v>
+      <c r="K39" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="L39" t="b">
         <v>1</v>
@@ -3168,16 +3186,16 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -3191,8 +3209,8 @@
       <c r="J40" t="b">
         <v>1</v>
       </c>
-      <c r="K40" t="s">
-        <v>111</v>
+      <c r="K40" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L40" t="b">
         <v>1</v>
@@ -3206,13 +3224,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -3229,8 +3247,8 @@
       <c r="J41" t="b">
         <v>1</v>
       </c>
-      <c r="K41" t="s">
-        <v>111</v>
+      <c r="K41" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="L41" t="b">
         <v>1</v>
@@ -3244,16 +3262,16 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -3267,8 +3285,8 @@
       <c r="J42" t="b">
         <v>1</v>
       </c>
-      <c r="K42" t="s">
-        <v>111</v>
+      <c r="K42" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="L42" t="b">
         <v>1</v>
@@ -3282,13 +3300,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -3305,8 +3323,8 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
-      <c r="K43" t="s">
-        <v>111</v>
+      <c r="K43" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="L43" t="b">
         <v>1</v>
@@ -3320,16 +3338,16 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -3343,8 +3361,8 @@
       <c r="J44" t="b">
         <v>1</v>
       </c>
-      <c r="K44" t="s">
-        <v>111</v>
+      <c r="K44" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="L44" t="b">
         <v>1</v>
@@ -3358,16 +3376,16 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -3381,8 +3399,8 @@
       <c r="J45" t="b">
         <v>1</v>
       </c>
-      <c r="K45" t="s">
-        <v>111</v>
+      <c r="K45" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
@@ -3396,16 +3414,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -3419,8 +3437,8 @@
       <c r="J46" t="b">
         <v>1</v>
       </c>
-      <c r="K46" t="s">
-        <v>111</v>
+      <c r="K46" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
@@ -3434,16 +3452,16 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -3457,8 +3475,8 @@
       <c r="J47" t="b">
         <v>1</v>
       </c>
-      <c r="K47" t="s">
-        <v>111</v>
+      <c r="K47" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="L47" t="b">
         <v>1</v>
@@ -3472,16 +3490,16 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -3495,8 +3513,8 @@
       <c r="J48" t="b">
         <v>1</v>
       </c>
-      <c r="K48" t="s">
-        <v>111</v>
+      <c r="K48" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="L48" t="b">
         <v>1</v>
@@ -3510,16 +3528,16 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F49" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -3533,8 +3551,8 @@
       <c r="J49" t="b">
         <v>1</v>
       </c>
-      <c r="K49" t="s">
-        <v>111</v>
+      <c r="K49" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="L49" t="b">
         <v>1</v>
@@ -3548,13 +3566,13 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -3571,8 +3589,8 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
-      <c r="K50" t="s">
-        <v>139</v>
+      <c r="K50" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="L50" t="b">
         <v>1</v>
@@ -3586,13 +3604,13 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -3609,8 +3627,8 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
-      <c r="K51" t="s">
-        <v>139</v>
+      <c r="K51" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="L51" t="b">
         <v>1</v>
@@ -3624,13 +3642,13 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -3647,14 +3665,17 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
-      <c r="K52" t="s">
-        <v>139</v>
+      <c r="K52" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="L52" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:O52">
+    <sortCondition ref="A2"/>
+  </sortState>
   <conditionalFormatting sqref="C$1:C$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>

--- a/Content/Configs/卡牌选项表.xlsx
+++ b/Content/Configs/卡牌选项表.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -44,6 +47,9 @@
     <t>选项类型</t>
   </si>
   <si>
+    <t>类型文本</t>
+  </si>
+  <si>
     <t>费用</t>
   </si>
   <si>
@@ -56,9 +62,6 @@
     <t>成就数</t>
   </si>
   <si>
-    <t>是否升级</t>
-  </si>
-  <si>
     <t>选项图标</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>食材+1</t>
   </si>
   <si>
+    <t>加资源</t>
+  </si>
+  <si>
     <t>不撒谎的人</t>
   </si>
   <si>
@@ -182,6 +188,9 @@
     <t>食材-1或木材-1，矿石+1</t>
   </si>
   <si>
+    <t>换资源</t>
+  </si>
+  <si>
     <t>木头装太多了，换点吃的和亮晶晶</t>
   </si>
   <si>
@@ -263,6 +272,9 @@
     <t>升级垂钓类型地标牌（1级），食材-1</t>
   </si>
   <si>
+    <t>升级</t>
+  </si>
+  <si>
     <t>不存在的花</t>
   </si>
   <si>
@@ -459,6 +471,9 @@
   </si>
   <si>
     <t>解谜成就全部解锁完成，成就+4</t>
+  </si>
+  <si>
+    <t>成就</t>
   </si>
   <si>
     <t>永不完结的传说</t>
@@ -1679,12 +1694,12 @@
     <col min="2" max="2" width="3.375" customWidth="1"/>
     <col min="3" max="3" width="31.625" customWidth="1"/>
     <col min="4" max="4" width="60.375" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="6.375" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="6.375" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="91.5" customWidth="1"/>
     <col min="12" max="12" width="5.375" customWidth="1"/>
     <col min="13" max="14" width="5.125" customWidth="1"/>
@@ -1753,20 +1768,20 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -1780,10 +1795,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1791,20 +1806,20 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -1818,10 +1833,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1829,20 +1844,20 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -1856,10 +1871,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1867,20 +1882,20 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -1894,10 +1909,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1905,20 +1920,20 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -1932,10 +1947,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1943,20 +1958,20 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -1970,10 +1985,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1981,20 +1996,20 @@
       <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -2008,10 +2023,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -2019,20 +2034,20 @@
       <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -2046,10 +2061,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -2057,20 +2072,20 @@
       <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10">
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -2084,31 +2099,31 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -2122,31 +2137,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
       <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -2160,31 +2175,31 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -2198,31 +2213,31 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -2236,31 +2251,31 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -2274,31 +2289,31 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -2312,31 +2327,31 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -2350,31 +2365,31 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -2388,31 +2403,31 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="b">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -2426,31 +2441,31 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -2464,31 +2479,31 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
         <v>80</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>81</v>
       </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
@@ -2502,31 +2517,31 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="b">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22">
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -2540,31 +2555,31 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23">
         <v>5</v>
       </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
       <c r="K23" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
@@ -2578,31 +2593,31 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -2616,31 +2631,31 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
@@ -2654,31 +2669,31 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -2692,31 +2707,31 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
@@ -2730,31 +2745,31 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
@@ -2768,31 +2783,31 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L29" t="b">
         <v>1</v>
@@ -2806,31 +2821,31 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
@@ -2844,31 +2859,31 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="G31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L31" t="b">
         <v>1</v>
@@ -2882,31 +2897,31 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
@@ -2920,31 +2935,31 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
@@ -2958,31 +2973,31 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34">
         <v>3</v>
       </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
       <c r="K34" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
@@ -2996,31 +3011,31 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="G35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
@@ -3034,31 +3049,31 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36">
+        <v>81</v>
+      </c>
+      <c r="G36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36">
         <v>6</v>
       </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
       <c r="K36" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L36" t="b">
         <v>1</v>
@@ -3072,31 +3087,31 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L37" t="b">
         <v>1</v>
@@ -3110,31 +3125,31 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
@@ -3148,31 +3163,31 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" t="s">
         <v>120</v>
       </c>
-      <c r="E39" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L39" t="b">
         <v>1</v>
@@ -3186,31 +3201,31 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s">
-        <v>123</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="G40" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L40" t="b">
         <v>1</v>
@@ -3224,31 +3239,31 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L41" t="b">
         <v>1</v>
@@ -3262,31 +3277,31 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L42" t="b">
         <v>1</v>
@@ -3300,31 +3315,31 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L43" t="b">
         <v>1</v>
@@ -3338,31 +3353,31 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L44" t="b">
         <v>1</v>
@@ -3376,31 +3391,31 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
@@ -3414,31 +3429,31 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
@@ -3452,31 +3467,31 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="G47" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L47" t="b">
         <v>1</v>
@@ -3490,31 +3505,31 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="b">
+        <v>120</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L48" t="b">
         <v>1</v>
@@ -3528,31 +3543,31 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49">
+        <v>120</v>
+      </c>
+      <c r="G49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49">
         <v>3</v>
       </c>
-      <c r="J49" t="b">
-        <v>1</v>
-      </c>
       <c r="K49" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L49" t="b">
         <v>1</v>
@@ -3566,31 +3581,31 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50">
+        <v>148</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50">
         <v>4</v>
       </c>
-      <c r="J50" t="b">
-        <v>0</v>
-      </c>
       <c r="K50" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L50" t="b">
         <v>1</v>
@@ -3604,31 +3619,31 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51">
+        <v>148</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51">
         <v>6</v>
       </c>
-      <c r="J51" t="b">
-        <v>0</v>
-      </c>
       <c r="K51" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L51" t="b">
         <v>1</v>
@@ -3642,38 +3657,38 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" t="s">
         <v>147</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>148</v>
       </c>
-      <c r="E52" t="s">
-        <v>144</v>
-      </c>
-      <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52">
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52">
         <v>10</v>
       </c>
-      <c r="J52" t="b">
-        <v>0</v>
-      </c>
       <c r="K52" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L52" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O52">
+  <sortState ref="A2:P52">
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="C$1:C$1048576">

--- a/Content/Configs/卡牌选项表.xlsx
+++ b/Content/Configs/卡牌选项表.xlsx
@@ -74,7 +74,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>蹦蹦炸弹！一条食材弹了起来。</t>
+    <t>免费获得1个食材</t>
   </si>
   <si>
     <t>食材+1</t>
@@ -95,7 +95,7 @@
     <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option05.UI_Option05'</t>
   </si>
   <si>
-    <t>哒哒哒~这次是两条。</t>
+    <t>免费获得2个食材</t>
   </si>
   <si>
     <t>食材+2</t>
@@ -104,7 +104,7 @@
     <t>2_0_0</t>
   </si>
   <si>
-    <t>两条烤鱼串一串</t>
+    <t>免费获得2个食材，1个木材</t>
   </si>
   <si>
     <t>食材+2，木材+1</t>
@@ -116,7 +116,7 @@
     <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option08.UI_Option08'</t>
   </si>
   <si>
-    <t>先烤一条吃</t>
+    <t>免费获得1个食材，1个木材</t>
   </si>
   <si>
     <t>食材+1，木材+1</t>
@@ -128,7 +128,7 @@
     <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option04.UI_Option04'</t>
   </si>
   <si>
-    <t>伐伐伐伐木工</t>
+    <t>免费获得1个木材</t>
   </si>
   <si>
     <t>木材+1</t>
@@ -140,7 +140,7 @@
     <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option06.UI_Option06'</t>
   </si>
   <si>
-    <t>伐伐伐伐木工x2</t>
+    <t>免费获得2个木材</t>
   </si>
   <si>
     <t>木材+2</t>
@@ -152,7 +152,7 @@
     <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option02.UI_Option02'</t>
   </si>
   <si>
-    <t>采采采采矿石</t>
+    <t>免费获得1个矿石</t>
   </si>
   <si>
     <t>矿石+1</t>
@@ -161,7 +161,7 @@
     <t>0_0_1</t>
   </si>
   <si>
-    <t>炸鱼，砍树，敲石头</t>
+    <t>免费获得1个食材，1个木材，1个矿石</t>
   </si>
   <si>
     <t>食材+1，木材+1，矿石+1</t>
@@ -173,7 +173,7 @@
     <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option09.UI_Option09'</t>
   </si>
   <si>
-    <t>获得采矿小能手称号</t>
+    <t>采矿技能升为3级，奖励2个原石！</t>
   </si>
   <si>
     <t>升级采矿类型地标牌（3级），成就+2</t>
@@ -182,7 +182,7 @@
     <t>0_0_2</t>
   </si>
   <si>
-    <t>换亮晶晶的石头</t>
+    <t>食材-1,木材-1中任选一项，来获得1个矿石</t>
   </si>
   <si>
     <t>食材-1或木材-1，矿石+1</t>
@@ -191,7 +191,7 @@
     <t>换资源</t>
   </si>
   <si>
-    <t>木头装太多了，换点吃的和亮晶晶</t>
+    <t>减去1个木材来获得1个食材和一个矿石</t>
   </si>
   <si>
     <t>食材+1，木材-1，矿石+1</t>
@@ -203,7 +203,7 @@
     <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option01.UI_Option01'</t>
   </si>
   <si>
-    <t>炸鱼太多了，换点木头的和亮晶晶</t>
+    <t>减去1个食材来获得1个木材和一个矿石</t>
   </si>
   <si>
     <t>食材-1，木材+1，矿石+1</t>
@@ -212,7 +212,7 @@
     <t>0_1_1</t>
   </si>
   <si>
-    <t>都换都换</t>
+    <t>食材-1,木材-1,矿石-1中任选一项，来获得1个食材，1个木材，1个矿石</t>
   </si>
   <si>
     <t>食材-1或木材-1或矿石-1，食材+1，木材+1，矿石+1</t>
@@ -221,7 +221,7 @@
     <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option07.UI_Option07'</t>
   </si>
   <si>
-    <t>等价交换</t>
+    <t>食材-2,木材-2中任选一项，来获得1个食材，1个木材</t>
   </si>
   <si>
     <t>食材-2或木材-2，食材+1，木材+1</t>
@@ -230,7 +230,7 @@
     <t>2_2_0</t>
   </si>
   <si>
-    <t>越换越多</t>
+    <t>食材-2,矿石-2中任选一项，来获得3个木材</t>
   </si>
   <si>
     <t>食材-2或矿石-2，木材+3</t>
@@ -242,7 +242,7 @@
     <t>0_3_0</t>
   </si>
   <si>
-    <t>肚子饿了</t>
+    <t>木材-2,矿石-2中任选一项，来获得3个食材（分支1）</t>
   </si>
   <si>
     <t>木材-2或矿石-2，食材+3</t>
@@ -254,7 +254,7 @@
     <t>3_0_0</t>
   </si>
   <si>
-    <t>想要亮晶晶</t>
+    <t>食材-2,木材-2中任选一项，来获得3个矿石</t>
   </si>
   <si>
     <t>食材-2或木材-2，矿石+3</t>
@@ -263,10 +263,10 @@
     <t>0_0_3</t>
   </si>
   <si>
-    <t>肚子好饿</t>
-  </si>
-  <si>
-    <t>钓鱼小能手1级</t>
+    <t>木材-2,矿石-2中任选一项，来获得3个食材（分支2）</t>
+  </si>
+  <si>
+    <t>食材-1，将垂钓技能升级为1级（分支1）</t>
   </si>
   <si>
     <t>升级垂钓类型地标牌（1级），食材-1</t>
@@ -281,67 +281,67 @@
     <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option03.UI_Option03'</t>
   </si>
   <si>
-    <t>砍树小能手2级</t>
-  </si>
-  <si>
-    <t>升级伐木类型地标牌（2级），食材-1，木材-1</t>
-  </si>
-  <si>
-    <t>砍树小能手1级</t>
-  </si>
-  <si>
-    <t>升级伐木类型地标牌（1级），食材-1，木材-1，成就+1</t>
-  </si>
-  <si>
-    <t>砍树小能手3级</t>
+    <t>食材-1，木材-1，将伐木技能升级为1级</t>
+  </si>
+  <si>
+    <t>升级伐木类型地标牌（1级），食材-1，木材-1</t>
+  </si>
+  <si>
+    <t>食材-1，木材-1，将伐木技能升级为2级，奖励1个原石！</t>
+  </si>
+  <si>
+    <t>升级伐木类型地标牌（2级），食材-1，木材-1，成就+1</t>
+  </si>
+  <si>
+    <t>木材-1，矿石-2，将伐木技能升级为3级，奖励5个原石！</t>
   </si>
   <si>
     <t>升级伐木类型地标牌（3级），木材-2，矿石-2，成就+5</t>
   </si>
   <si>
-    <t>采矿小能手1级</t>
+    <t>木材-2，将采矿技能升级为1级</t>
   </si>
   <si>
     <t>升级采矿类型地标牌（1级），木材-2</t>
   </si>
   <si>
-    <t>采矿小能手2级</t>
+    <t>食材-2，木材-1，将采矿技能升级为2级</t>
   </si>
   <si>
     <t>升级采矿类型地标牌（2级），食材-2，木材-1</t>
   </si>
   <si>
-    <t>见闻小能手2级</t>
+    <t>木材-2，将见闻技能升级为2级</t>
   </si>
   <si>
     <t>升级见闻类型地标牌（2级），木材-2</t>
   </si>
   <si>
-    <t>见闻小能手3级</t>
+    <t>食材-1，矿石-1，将见闻技能升级为3级</t>
   </si>
   <si>
     <t>升级见闻类型地标牌（3级），食材-1，矿石-1</t>
   </si>
   <si>
-    <t>贸易小能手2级</t>
+    <t>食材-1，将贸易技能升级为2级</t>
   </si>
   <si>
     <t>升级贸易类型地标牌（2级），食材-1</t>
   </si>
   <si>
-    <t>贸易小能手3级</t>
+    <t>食材-1，木材-1，将贸易技能升级为3级（分支1）</t>
   </si>
   <si>
     <t>升级贸易类型地标牌（3级），食材-1，木材-1</t>
   </si>
   <si>
-    <t>贸易小能手4级</t>
+    <t>食材-1，将贸易技能升级为4级</t>
   </si>
   <si>
     <t>升级贸易类型地标牌（4级），食材-1</t>
   </si>
   <si>
-    <t>解谜小能手1级</t>
+    <t>食材-1，木材-1，矿石-2，将解谜技能升级为1级</t>
   </si>
   <si>
     <t>升级解谜类型地标牌（1级），食材-1，木材-1，矿石-2</t>
@@ -350,19 +350,19 @@
     <t>1_1_2</t>
   </si>
   <si>
-    <t>解谜小能手2级</t>
+    <t>食材-1，木材-1，矿石-1，将解谜技能升级为2级</t>
   </si>
   <si>
     <t>升级解谜类型地标牌（2级），食材-1，木材-1，矿石-1</t>
   </si>
   <si>
-    <t>挑战小能手1级</t>
+    <t>食材-1，木材-1，将挑战技能升级为1级</t>
   </si>
   <si>
     <t>升级挑战类型地标牌（1级），食材-1，木材-1</t>
   </si>
   <si>
-    <t>挑战小能手3级</t>
+    <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个原石！</t>
   </si>
   <si>
     <t>升级挑战类型地标牌（3级），食材-2，木材-2，矿石-2，成就+3</t>
@@ -371,13 +371,13 @@
     <t>2_2_2</t>
   </si>
   <si>
-    <t>神像小能手1级</t>
+    <t>食材-1，木材-1，矿石-2，将神像技能升级为1级</t>
   </si>
   <si>
     <t>升级神像类型地标牌（1级），食材-1，木材-1，矿石-2</t>
   </si>
   <si>
-    <t>神像小能手3级</t>
+    <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个原石！</t>
   </si>
   <si>
     <t>升级神像类型地标牌（3级），食材-3，木材-3，矿石-4，成就+6</t>
@@ -386,7 +386,7 @@
     <t>3_3_4</t>
   </si>
   <si>
-    <t>钓鱼小能手2级</t>
+    <t>食材-1，木材-1，将垂钓技能升级为2级</t>
   </si>
   <si>
     <t>升级垂钓类型地标牌（2级），食材-1，木材-1</t>
@@ -395,16 +395,16 @@
     <t>绝不迷失的指路者</t>
   </si>
   <si>
-    <t>钓鱼小能手1级222</t>
-  </si>
-  <si>
-    <t>砍树小能手2级222</t>
+    <t>食材-1，将垂钓技能升级为1级（分支2）</t>
+  </si>
+  <si>
+    <t>木材-1，矿石-1，将伐木技能升级为2级</t>
   </si>
   <si>
     <t>升级伐木类型地标牌（2级），木材-1，矿石-1</t>
   </si>
   <si>
-    <t>采矿小能手2级222</t>
+    <t>食材-1，木材-2，将采矿技能升级为2级</t>
   </si>
   <si>
     <t>升级采矿类型地标牌（2级），食材-1，木材-2</t>
@@ -413,52 +413,52 @@
     <t>1_2_0</t>
   </si>
   <si>
-    <t>采矿小能手1级222</t>
+    <t>食材-2，将采矿技能升级为1级</t>
   </si>
   <si>
     <t>升级采矿类型地标牌（1级），食材-2</t>
   </si>
   <si>
-    <t>见闻小能手3级222</t>
+    <t>木材-1，矿石-1，将见闻技能升级为3级</t>
   </si>
   <si>
     <t>升级见闻类型地标牌（3级），木材-1，矿石-1</t>
   </si>
   <si>
-    <t>见闻小能手2级222</t>
+    <t>食材-2，将见闻技能升级为2级</t>
   </si>
   <si>
     <t>升级见闻类型地标牌（2级），食材-2</t>
   </si>
   <si>
-    <t>贸易小能手3级222</t>
-  </si>
-  <si>
-    <t>贸易小能手2级222</t>
+    <t>食材-1，木材-1，将贸易技能升级为3级（分支2）</t>
+  </si>
+  <si>
+    <t>木材-1，将贸易技能升级为2级</t>
   </si>
   <si>
     <t>升级贸易类型地标牌（2级），木材-1</t>
   </si>
   <si>
-    <t>解谜小能手2级222</t>
+    <t>食材-1，木材-1，将解谜技能升级为2级</t>
   </si>
   <si>
     <t>升级解谜类型地标牌（2级），食材-1，木材-1</t>
   </si>
   <si>
-    <t>解谜小能手3级222</t>
+    <t>食材-2，木材-2，矿石-2，将解谜技能升级为3级</t>
   </si>
   <si>
     <t>升级解谜类型地标牌（3级），食材-2，木材-2，矿石-2</t>
   </si>
   <si>
-    <t>挑战小能手2级</t>
+    <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个原石！</t>
   </si>
   <si>
     <t>升级挑战类型地标牌（2级），食材-1，木材-1，矿石-1，成就+1</t>
   </si>
   <si>
-    <t>神像小能手2级</t>
+    <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个原石！</t>
   </si>
   <si>
     <t>升级神像类型地标牌（2级），食材-2，木材-2，矿石-3，成就+3</t>
@@ -467,7 +467,7 @@
     <t>2_2_3</t>
   </si>
   <si>
-    <t>解谜成就全部解锁完成</t>
+    <t>解谜技能已纯火如青，奖励4个原石！</t>
   </si>
   <si>
     <t>解谜成就全部解锁完成，成就+4</t>
@@ -479,13 +479,13 @@
     <t>永不完结的传说</t>
   </si>
   <si>
-    <t>挑战成就全部解锁完成</t>
+    <t>挑战技能已登峰造极，奖励6个原石！</t>
   </si>
   <si>
     <t>挑战成就全部解锁完成，成就+6</t>
   </si>
   <si>
-    <t>神像成就全部解锁完成</t>
+    <t>神像技能已出神入化，奖励10个原石！</t>
   </si>
   <si>
     <t>神像成就全部解锁完成，成就+10</t>
@@ -1685,14 +1685,14 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="3.375" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="67.75" customWidth="1"/>
     <col min="4" max="4" width="60.375" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
@@ -3691,11 +3691,26 @@
   <sortState ref="A2:P52">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="C$1:C$1048576">
+  <conditionalFormatting sqref="C12">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D$1:D$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C11 C14:C49 C53:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Content/Configs/卡牌选项表.xlsx
+++ b/Content/Configs/卡牌选项表.xlsx
@@ -182,7 +182,7 @@
     <t>0_0_2</t>
   </si>
   <si>
-    <t>食材-1,木材-1中任选一项，来获得1个矿石</t>
+    <t>食材-1，木材-1中任选一项，换取矿石+1</t>
   </si>
   <si>
     <t>食材-1或木材-1，矿石+1</t>
@@ -191,7 +191,7 @@
     <t>换资源</t>
   </si>
   <si>
-    <t>减去1个木材来获得1个食材和一个矿石</t>
+    <t>木材-1，换取食材+1，矿石+1</t>
   </si>
   <si>
     <t>食材+1，木材-1，矿石+1</t>
@@ -203,7 +203,7 @@
     <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option01.UI_Option01'</t>
   </si>
   <si>
-    <t>减去1个食材来获得1个木材和一个矿石</t>
+    <t>食材-1，换取木材+1，矿石+1</t>
   </si>
   <si>
     <t>食材-1，木材+1，矿石+1</t>
@@ -212,7 +212,7 @@
     <t>0_1_1</t>
   </si>
   <si>
-    <t>食材-1,木材-1,矿石-1中任选一项，来获得1个食材，1个木材，1个矿石</t>
+    <t>食材-1，木材-1，矿石-1中任选一项，换取食材+1，木材+1，矿石+1</t>
   </si>
   <si>
     <t>食材-1或木材-1或矿石-1，食材+1，木材+1，矿石+1</t>
@@ -221,7 +221,7 @@
     <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option07.UI_Option07'</t>
   </si>
   <si>
-    <t>食材-2,木材-2中任选一项，来获得1个食材，1个木材</t>
+    <t>食材-2，木材-2中任选一项，换取食材+1，木材+1</t>
   </si>
   <si>
     <t>食材-2或木材-2，食材+1，木材+1</t>
@@ -230,7 +230,7 @@
     <t>2_2_0</t>
   </si>
   <si>
-    <t>食材-2,矿石-2中任选一项，来获得3个木材</t>
+    <t>食材-2，矿石-2中任选一项，换取木材+3</t>
   </si>
   <si>
     <t>食材-2或矿石-2，木材+3</t>
@@ -242,7 +242,7 @@
     <t>0_3_0</t>
   </si>
   <si>
-    <t>木材-2,矿石-2中任选一项，来获得3个食材（分支1）</t>
+    <t>木材-2，矿石-2中任选一项，换取食材+3（分支1）</t>
   </si>
   <si>
     <t>木材-2或矿石-2，食材+3</t>
@@ -254,7 +254,7 @@
     <t>3_0_0</t>
   </si>
   <si>
-    <t>食材-2,木材-2中任选一项，来获得3个矿石</t>
+    <t>食材-2，木材-2中任选一项，换取矿石+3</t>
   </si>
   <si>
     <t>食材-2或木材-2，矿石+3</t>
@@ -263,7 +263,7 @@
     <t>0_0_3</t>
   </si>
   <si>
-    <t>木材-2,矿石-2中任选一项，来获得3个食材（分支2）</t>
+    <t>木材-2，矿石-2中任选一项，换取食材+3（分支2）</t>
   </si>
   <si>
     <t>食材-1，将垂钓技能升级为1级（分支1）</t>
@@ -335,10 +335,10 @@
     <t>升级贸易类型地标牌（3级），食材-1，木材-1</t>
   </si>
   <si>
-    <t>食材-1，将贸易技能升级为4级</t>
-  </si>
-  <si>
-    <t>升级贸易类型地标牌（4级），食材-1</t>
+    <t>矿石-1，将贸易技能升级为4级</t>
+  </si>
+  <si>
+    <t>升级贸易类型地标牌（4级），矿石-1</t>
   </si>
   <si>
     <t>食材-1，木材-1，矿石-2，将解谜技能升级为1级</t>
@@ -1685,7 +1685,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Content/Configs/卡牌选项表.xlsx
+++ b/Content/Configs/卡牌选项表.xlsx
@@ -173,7 +173,7 @@
     <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option09.UI_Option09'</t>
   </si>
   <si>
-    <t>采矿技能升为3级，奖励2个原石！</t>
+    <t>采矿技能升为3级，奖励2个粉球！</t>
   </si>
   <si>
     <t>升级采矿类型地标牌（3级），成就+2</t>
@@ -287,13 +287,13 @@
     <t>升级伐木类型地标牌（1级），食材-1，木材-1</t>
   </si>
   <si>
-    <t>食材-1，木材-1，将伐木技能升级为2级，奖励1个原石！</t>
+    <t>食材-1，木材-1，将伐木技能升级为2级，奖励1个粉球！</t>
   </si>
   <si>
     <t>升级伐木类型地标牌（2级），食材-1，木材-1，成就+1</t>
   </si>
   <si>
-    <t>木材-1，矿石-2，将伐木技能升级为3级，奖励5个原石！</t>
+    <t>木材-1，矿石-2，将伐木技能升级为3级，奖励5个粉球！</t>
   </si>
   <si>
     <t>升级伐木类型地标牌（3级），木材-2，矿石-2，成就+5</t>
@@ -362,7 +362,7 @@
     <t>升级挑战类型地标牌（1级），食材-1，木材-1</t>
   </si>
   <si>
-    <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个原石！</t>
+    <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个粉球！</t>
   </si>
   <si>
     <t>升级挑战类型地标牌（3级），食材-2，木材-2，矿石-2，成就+3</t>
@@ -377,7 +377,7 @@
     <t>升级神像类型地标牌（1级），食材-1，木材-1，矿石-2</t>
   </si>
   <si>
-    <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个原石！</t>
+    <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个粉球！</t>
   </si>
   <si>
     <t>升级神像类型地标牌（3级），食材-3，木材-3，矿石-4，成就+6</t>
@@ -452,13 +452,13 @@
     <t>升级解谜类型地标牌（3级），食材-2，木材-2，矿石-2</t>
   </si>
   <si>
-    <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个原石！</t>
+    <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个粉球！</t>
   </si>
   <si>
     <t>升级挑战类型地标牌（2级），食材-1，木材-1，矿石-1，成就+1</t>
   </si>
   <si>
-    <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个原石！</t>
+    <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个粉球！</t>
   </si>
   <si>
     <t>升级神像类型地标牌（2级），食材-2，木材-2，矿石-3，成就+3</t>
@@ -467,7 +467,7 @@
     <t>2_2_3</t>
   </si>
   <si>
-    <t>解谜技能已纯火如青，奖励4个原石！</t>
+    <t>解谜技能已纯火如青，奖励4个粉球！</t>
   </si>
   <si>
     <t>解谜成就全部解锁完成，成就+4</t>
@@ -479,13 +479,13 @@
     <t>永不完结的传说</t>
   </si>
   <si>
-    <t>挑战技能已登峰造极，奖励6个原石！</t>
+    <t>挑战技能已登峰造极，奖励6个粉球！</t>
   </si>
   <si>
     <t>挑战成就全部解锁完成，成就+6</t>
   </si>
   <si>
-    <t>神像技能已出神入化，奖励10个原石！</t>
+    <t>神像技能已出神入化，奖励10个粉球！</t>
   </si>
   <si>
     <t>神像成就全部解锁完成，成就+10</t>

--- a/Content/Configs/卡牌选项表.xlsx
+++ b/Content/Configs/卡牌选项表.xlsx
@@ -173,7 +173,7 @@
     <t>/Script/Engine.Texture2D'/Game/Resources/Textures/Options/UI_Option09.UI_Option09'</t>
   </si>
   <si>
-    <t>采矿技能升为3级，奖励2个粉球！</t>
+    <t>采矿技能升为3级，奖励2个原石！</t>
   </si>
   <si>
     <t>升级采矿类型地标牌（3级），成就+2</t>
@@ -287,13 +287,13 @@
     <t>升级伐木类型地标牌（1级），食材-1，木材-1</t>
   </si>
   <si>
-    <t>食材-1，木材-1，将伐木技能升级为2级，奖励1个粉球！</t>
+    <t>食材-1，木材-1，将伐木技能升级为2级，奖励1个原石！</t>
   </si>
   <si>
     <t>升级伐木类型地标牌（2级），食材-1，木材-1，成就+1</t>
   </si>
   <si>
-    <t>木材-1，矿石-2，将伐木技能升级为3级，奖励5个粉球！</t>
+    <t>木材-1，矿石-2，将伐木技能升级为3级，奖励5个原石！</t>
   </si>
   <si>
     <t>升级伐木类型地标牌（3级），木材-2，矿石-2，成就+5</t>
@@ -362,7 +362,7 @@
     <t>升级挑战类型地标牌（1级），食材-1，木材-1</t>
   </si>
   <si>
-    <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个粉球！</t>
+    <t>食材-2，木材-2，矿石-2，将挑战技能升级为3级，奖励3个原石！</t>
   </si>
   <si>
     <t>升级挑战类型地标牌（3级），食材-2，木材-2，矿石-2，成就+3</t>
@@ -377,7 +377,7 @@
     <t>升级神像类型地标牌（1级），食材-1，木材-1，矿石-2</t>
   </si>
   <si>
-    <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个粉球！</t>
+    <t>食材-3，木材-3，矿石-4，将神像技能升级为3级，奖励6个原石！</t>
   </si>
   <si>
     <t>升级神像类型地标牌（3级），食材-3，木材-3，矿石-4，成就+6</t>
@@ -452,13 +452,13 @@
     <t>升级解谜类型地标牌（3级），食材-2，木材-2，矿石-2</t>
   </si>
   <si>
-    <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个粉球！</t>
+    <t>食材-1，木材-1，矿石-1，将挑战技能升级为2级，奖励1个原石！</t>
   </si>
   <si>
     <t>升级挑战类型地标牌（2级），食材-1，木材-1，矿石-1，成就+1</t>
   </si>
   <si>
-    <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个粉球！</t>
+    <t>食材-2，木材-2，矿石-3，将神像技能升级为2级，奖励3个原石！</t>
   </si>
   <si>
     <t>升级神像类型地标牌（2级），食材-2，木材-2，矿石-3，成就+3</t>
@@ -467,7 +467,7 @@
     <t>2_2_3</t>
   </si>
   <si>
-    <t>解谜技能已纯火如青，奖励4个粉球！</t>
+    <t>解谜技能已纯火如青，奖励4个原石！</t>
   </si>
   <si>
     <t>解谜成就全部解锁完成，成就+4</t>
@@ -479,13 +479,13 @@
     <t>永不完结的传说</t>
   </si>
   <si>
-    <t>挑战技能已登峰造极，奖励6个粉球！</t>
+    <t>挑战技能已登峰造极，奖励6个原石！</t>
   </si>
   <si>
     <t>挑战成就全部解锁完成，成就+6</t>
   </si>
   <si>
-    <t>神像技能已出神入化，奖励10个粉球！</t>
+    <t>神像技能已出神入化，奖励10个原石！</t>
   </si>
   <si>
     <t>神像成就全部解锁完成，成就+10</t>
